--- a/NformTester/NformTester/Keywordscripts/600.10.20.130_VerifyIncreaseVelocityDiscoveryTimeout.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.130_VerifyIncreaseVelocityDiscoveryTimeout.xlsx
@@ -1216,7 +1216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7326" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7328" uniqueCount="831">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3757,6 +3757,14 @@
   </si>
   <si>
     <t>$Velocity_SearchEnd$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_default.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3925,7 +3933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3974,6 +3982,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4709,7 +4721,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5392,6 +5404,12 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15">
+      <c r="A23" s="19" t="s">
+        <v>829</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>830</v>
+      </c>
       <c r="C23" s="5">
         <v>22</v>
       </c>

--- a/NformTester/NformTester/Keywordscripts/600.10.20.130_VerifyIncreaseVelocityDiscoveryTimeout.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.130_VerifyIncreaseVelocityDiscoveryTimeout.xlsx
@@ -3764,7 +3764,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_default.xml</t>
+    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_license.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4721,7 +4721,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NformTester/NformTester/Keywordscripts/600.10.20.130_VerifyIncreaseVelocityDiscoveryTimeout.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.130_VerifyIncreaseVelocityDiscoveryTimeout.xlsx
@@ -3764,8 +3764,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C:\\Automation-2014-11\\NformTestMain\\NformTester\\NformTester\\precondition_license.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -4721,7 +4720,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
